--- a/15 8/ExactModelData.xlsx
+++ b/15 8/ExactModelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\15 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9B248E-008E-4AC8-A70E-E38A730CB3AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C614AA-AD21-4EE9-97B7-80AC754D4420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="3" r:id="rId1"/>
@@ -420,49 +420,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.428282948452676</c:v>
+                  <c:v>-27.724987532717748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.158341641224695</c:v>
+                  <c:v>-37.664050272399507</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.291390423766757</c:v>
+                  <c:v>-97.810790328839872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5567085773573268</c:v>
+                  <c:v>-28.436626895953196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.260223808200962</c:v>
+                  <c:v>31.182130167887038</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.795899650907259</c:v>
+                  <c:v>7.0921057337858571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35053231953304476</c:v>
+                  <c:v>29.556424190960797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-54.245881317514645</c:v>
+                  <c:v>4.719261500049015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.466800981795714</c:v>
+                  <c:v>81.802790222639644</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-17.137056606290244</c:v>
+                  <c:v>-23.284003375989101</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.0203532269443656</c:v>
+                  <c:v>17.058332373305333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78.691264540425252</c:v>
+                  <c:v>79.216965594853804</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>88.474752724528884</c:v>
+                  <c:v>16.110097015334048</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.542839794478354</c:v>
+                  <c:v>-18.362431574192243</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.045346590866743</c:v>
+                  <c:v>56.205467721551017</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -480,49 +480,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.504510800827148</c:v>
+                  <c:v>-28.855678418106393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-29.177875532313763</c:v>
+                  <c:v>-10.632188229978141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.010563027391953</c:v>
+                  <c:v>95.121346397608633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.171935865456305</c:v>
+                  <c:v>9.9041792641100415</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.805987403165062</c:v>
+                  <c:v>1.1629306024616426E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-24.548792265075335</c:v>
+                  <c:v>85.182521281812839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.358882887876476</c:v>
+                  <c:v>-96.102703124747592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-65.110657884078194</c:v>
+                  <c:v>3.311107400487785</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87.998249819347464</c:v>
+                  <c:v>85.76339424756037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80.889364545160959</c:v>
+                  <c:v>96.97586908437772</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-91.998359787915959</c:v>
+                  <c:v>58.179046759586953</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-43.537535290098219</c:v>
+                  <c:v>-26.656563770207754</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-62.592976557166651</c:v>
+                  <c:v>-2.8850773296670553</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-10.905573253307821</c:v>
+                  <c:v>35.960926516467111</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-98.695394107168411</c:v>
+                  <c:v>-74.675701268826742</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1591,7 +1591,7 @@
   </sheetPr>
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -1679,19 +1679,19 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>8 metre</v>
+        <v>Rigid</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.77244044528516009</v>
+        <v>0.84721111246465486</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>11.832529447782216</v>
+        <v>14.801005199691341</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2:L17" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>7.1375338287998552E-2</v>
+        <v>3.3985489873536917E-2</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
@@ -1726,11 +1726,11 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>1.4158730294059745</v>
+        <v>0.84721111246465486</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>11.52766912324225</v>
+        <v>14.801005199691341</v>
       </c>
       <c r="U2">
         <v>16</v>
@@ -1742,46 +1742,46 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>11 metre</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.4158730294059745</v>
+        <v>1.0013820329211229</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>11.52766912324225</v>
+        <v>10.316414891127934</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H17" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>45.428282948452676</v>
+        <v>-27.724987532717748</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>32.504510800827148</v>
+        <v>-28.855678418106393</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3:I17" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <f ca="1">IF(J3=0,24,J3+1)</f>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L3">
         <f ca="1"/>
-        <v>3.9076163148406506E-2</v>
+        <v>0.15775019707717744</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1794,11 +1794,11 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>0.77244044528516009</v>
+        <v>0.70042625403816117</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>11.832529447782216</v>
+        <v>11.533975482052703</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -1814,11 +1814,11 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.77244044528516009</v>
+        <v>0.70042625403816117</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>11.832529447782216</v>
+        <v>11.533975482052703</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
@@ -1829,27 +1829,27 @@
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>28.158341641224695</v>
+        <v>-37.664050272399507</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>-29.177875532313763</v>
+        <v>-10.632188229978141</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J17" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K6" ca="1" si="1">IF(J4=0,24,J4+1)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>2.5389557545065444E-2</v>
+        <v>7.374769695576161E-2</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1862,11 +1862,11 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>1.3594464536426007</v>
+        <v>1.0013820329211229</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>14.287251870850891</v>
+        <v>10.316414891127934</v>
       </c>
       <c r="U4">
         <v>30</v>
@@ -1878,30 +1878,30 @@
       </c>
       <c r="B5" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>8 metre</v>
+        <v>11 metre</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5:E5" ca="1">_xlfn.XLOOKUP(B5,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.77244044528516009</v>
+        <v>1.0013820329211229</v>
       </c>
       <c r="D5" s="8">
         <f ca="1"/>
-        <v>11.832529447782216</v>
+        <v>10.316414891127934</v>
       </c>
       <c r="E5" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>92.291390423766757</v>
+        <v>-97.810790328839872</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>31.010563027391953</v>
+        <v>95.121346397608633</v>
       </c>
       <c r="I5">
         <f ca="1"/>
@@ -1909,15 +1909,15 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>0.1479869128630274</v>
+        <v>0.12468391703706849</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
@@ -1938,11 +1938,11 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6:E6" ca="1">_xlfn.XLOOKUP(B6,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.3594464536426007</v>
+        <v>1.0013820329211229</v>
       </c>
       <c r="D6" s="8">
         <f ca="1"/>
-        <v>14.287251870850891</v>
+        <v>10.316414891127934</v>
       </c>
       <c r="E6" s="2">
         <f ca="1"/>
@@ -1953,27 +1953,27 @@
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>1.5567085773573268</v>
+        <v>-28.436626895953196</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>87.171935865456305</v>
+        <v>9.9041792641100415</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>0.10260024550830751</v>
+        <v>3.9633752587088872E-2</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1990,46 +1990,46 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" ref="B7:B9" ca="1" si="2">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>8 metre</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7:E7" ca="1">_xlfn.XLOOKUP(B7,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.3594464536426007</v>
+        <v>0.70042625403816117</v>
       </c>
       <c r="D7" s="8">
         <f ca="1"/>
-        <v>14.287251870850891</v>
+        <v>11.533975482052703</v>
       </c>
       <c r="E7" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>-4.260223808200962</v>
+        <v>31.182130167887038</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>19.805987403165062</v>
+        <v>1.1629306024616426E-2</v>
       </c>
       <c r="I7">
         <f ca="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7" ca="1" si="3">IF(J7=0,24,J7+1)</f>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>9.0118297940136982E-2</v>
+        <v>0.15187994408062272</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -2049,11 +2049,11 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8:E8" ca="1">_xlfn.XLOOKUP(B8,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.77244044528516009</v>
+        <v>0.70042625403816117</v>
       </c>
       <c r="D8" s="8">
         <f ca="1"/>
-        <v>11.832529447782216</v>
+        <v>11.533975482052703</v>
       </c>
       <c r="E8" s="2">
         <f ca="1"/>
@@ -2064,15 +2064,15 @@
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>90.795899650907259</v>
+        <v>7.0921057337858571</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>-24.548792265075335</v>
+        <v>85.182521281812839</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>0.11183933047518668</v>
+        <v>0.16535043894631951</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -2099,34 +2099,34 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Rigid</v>
+        <v>11 metre</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" aca="1" ref="C9:E9" ca="1">_xlfn.XLOOKUP(B9,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.4158730294059745</v>
+        <v>1.0013820329211229</v>
       </c>
       <c r="D9" s="8">
         <f ca="1"/>
-        <v>11.52766912324225</v>
+        <v>10.316414891127934</v>
       </c>
       <c r="E9" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9">
         <f ca="1"/>
-        <v>0.35053231953304476</v>
+        <v>29.556424190960797</v>
       </c>
       <c r="H9">
         <f ca="1"/>
-        <v>96.358882887876476</v>
+        <v>-96.102703124747592</v>
       </c>
       <c r="I9">
         <f ca="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="L9">
         <f ca="1"/>
-        <v>0.11209705241422482</v>
+        <v>0.11210482888017162</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
@@ -2153,15 +2153,15 @@
       </c>
       <c r="G10">
         <f ca="1"/>
-        <v>-54.245881317514645</v>
+        <v>4.719261500049015</v>
       </c>
       <c r="H10">
         <f ca="1"/>
-        <v>-65.110657884078194</v>
+        <v>3.311107400487785</v>
       </c>
       <c r="I10">
         <f ca="1"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="L10">
         <f ca="1"/>
-        <v>5.0503580478259785E-2</v>
+        <v>7.8639891449885618E-2</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -2188,15 +2188,15 @@
       </c>
       <c r="G11">
         <f ca="1"/>
-        <v>71.466800981795714</v>
+        <v>81.802790222639644</v>
       </c>
       <c r="H11">
         <f ca="1"/>
-        <v>87.998249819347464</v>
+        <v>85.76339424756037</v>
       </c>
       <c r="I11">
         <f ca="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="L11">
         <f ca="1"/>
-        <v>8.9819082183380389E-2</v>
+        <v>0.13695207055273628</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -2223,15 +2223,15 @@
       </c>
       <c r="G12">
         <f ca="1"/>
-        <v>-17.137056606290244</v>
+        <v>-23.284003375989101</v>
       </c>
       <c r="H12">
         <f ca="1"/>
-        <v>80.889364545160959</v>
+        <v>96.97586908437772</v>
       </c>
       <c r="I12">
         <f ca="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="L12">
         <f ca="1"/>
-        <v>6.9741030066007847E-2</v>
+        <v>1.7528688591828046E-2</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>22</v>
@@ -2258,15 +2258,15 @@
       </c>
       <c r="G13">
         <f ca="1"/>
-        <v>9.0203532269443656</v>
+        <v>17.058332373305333</v>
       </c>
       <c r="H13">
         <f ca="1"/>
-        <v>-91.998359787915959</v>
+        <v>58.179046759586953</v>
       </c>
       <c r="I13">
         <f ca="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="L13">
         <f ca="1"/>
-        <v>0.14074179486383148</v>
+        <v>0.10072449017839782</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2287,15 +2287,15 @@
       </c>
       <c r="G14">
         <f ca="1"/>
-        <v>78.691264540425252</v>
+        <v>79.216965594853804</v>
       </c>
       <c r="H14">
         <f ca="1"/>
-        <v>-43.537535290098219</v>
+        <v>-26.656563770207754</v>
       </c>
       <c r="I14">
         <f ca="1"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
@@ -2307,14 +2307,14 @@
       </c>
       <c r="L14">
         <f ca="1"/>
-        <v>5.5925939083391857E-2</v>
+        <v>7.13136112313629E-2</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2323,34 +2323,34 @@
       </c>
       <c r="G15">
         <f ca="1"/>
-        <v>88.474752724528884</v>
+        <v>16.110097015334048</v>
       </c>
       <c r="H15">
         <f ca="1"/>
-        <v>-62.592976557166651</v>
+        <v>-2.8850773296670553</v>
       </c>
       <c r="I15">
         <f ca="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L15">
         <f ca="1"/>
-        <v>0.13931349616501376</v>
+        <v>0.10362765634694243</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="G16">
         <f ca="1"/>
-        <v>57.542839794478354</v>
+        <v>-18.362431574192243</v>
       </c>
       <c r="H16">
         <f ca="1"/>
-        <v>-10.905573253307821</v>
+        <v>35.960926516467111</v>
       </c>
       <c r="I16">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
@@ -2379,11 +2379,11 @@
       </c>
       <c r="L16">
         <f ca="1"/>
-        <v>0.1224012733660779</v>
+        <v>6.3956684359693705E-2</v>
       </c>
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.47222222222222221</v>
+        <v>0.57425742574257421</v>
       </c>
     </row>
     <row r="17" spans="6:12" x14ac:dyDescent="0.25">
@@ -2392,27 +2392,27 @@
       </c>
       <c r="G17">
         <f ca="1"/>
-        <v>36.045346590866743</v>
+        <v>56.205467721551017</v>
       </c>
       <c r="H17">
         <f ca="1"/>
-        <v>-98.695394107168411</v>
+        <v>-74.675701268826742</v>
       </c>
       <c r="I17">
         <f ca="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L17">
         <f ca="1"/>
-        <v>5.7980916237175273E-2</v>
+        <v>4.7014101156401089E-2</v>
       </c>
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.25">
@@ -2466,63 +2466,63 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>55.859395933412713</v>
+        <v>40.016560455123148</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>40.549237040456418</v>
+        <v>39.135969509896178</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>97.361983164005011</v>
+        <v>136.43687641266979</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>87.185834538220973</v>
+        <v>30.112032746317144</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>20.258989212453208</v>
+        <v>31.182132336448859</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>94.056039652387256</v>
+        <v>85.477247824586016</v>
       </c>
       <c r="H1">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
-        <v>96.359520465320557</v>
+        <v>100.5450732698494</v>
       </c>
       <c r="I1">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
-        <v>84.746760469125647</v>
+        <v>5.7649684581452707</v>
       </c>
       <c r="J1">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
-        <v>113.36311399145616</v>
+        <v>118.52027793197102</v>
       </c>
       <c r="K1">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
-        <v>82.684750744300729</v>
+        <v>99.731960764257707</v>
       </c>
       <c r="L1">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G2)^2+('1D'!$H$13-'1D'!$H2)^2)</f>
-        <v>92.439520639203224</v>
+        <v>60.62827875845035</v>
       </c>
       <c r="M1">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G2)^2+('1D'!$H$14-'1D'!$H2)^2)</f>
-        <v>89.932375116571549</v>
+        <v>83.581696740921714</v>
       </c>
       <c r="N1">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G2)^2+('1D'!$H$15-'1D'!$H2)^2)</f>
-        <v>108.37740808836749</v>
+        <v>16.366395358833106</v>
       </c>
       <c r="O1">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G2)^2+('1D'!$H$16-'1D'!$H2)^2)</f>
-        <v>58.567140442369769</v>
+        <v>40.377804908633159</v>
       </c>
       <c r="P1">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G2)^2+('1D'!$H$17-'1D'!$H2)^2)</f>
-        <v>105.07163189379425</v>
+        <v>93.463976813472712</v>
       </c>
       <c r="Q1">
         <f>SQRT(('1D'!$G$18-'1D'!$G2)^2+('1D'!$H$18-'1D'!$H2)^2)</f>
@@ -2532,7 +2532,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>55.859395933412713</v>
+        <v>40.016560455123148</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2540,73 +2540,73 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>64.054411686518108</v>
+        <v>20.757662748492109</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>46.886914189276631</v>
+        <v>142.4160188873897</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>70.094524757611381</v>
+        <v>38.766390057999708</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>51.285477478395244</v>
+        <v>65.600075998679898</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>72.892386680575584</v>
+        <v>119.23481443910192</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>78.162551368250561</v>
+        <v>88.336416391843684</v>
       </c>
       <c r="I2">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
-        <v>139.5122223301656</v>
+        <v>45.687322149579948</v>
       </c>
       <c r="J2">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
-        <v>61.298935485278818</v>
+        <v>158.53663904209765</v>
       </c>
       <c r="K2">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
-        <v>79.091818701183328</v>
+        <v>125.9098911410467</v>
       </c>
       <c r="L2">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G3)^2+('1D'!$H$13-'1D'!$H3)^2)</f>
-        <v>129.71700787269032</v>
+        <v>97.880483900325146</v>
       </c>
       <c r="M2">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G3)^2+('1D'!$H$14-'1D'!$H3)^2)</f>
-        <v>82.998907933070569</v>
+        <v>106.96456162661684</v>
       </c>
       <c r="N2">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G3)^2+('1D'!$H$15-'1D'!$H3)^2)</f>
-        <v>104.38644865108897</v>
+        <v>50.950826865024432</v>
       </c>
       <c r="O2">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G3)^2+('1D'!$H$16-'1D'!$H3)^2)</f>
-        <v>45.068812777381332</v>
+        <v>65.489310038517729</v>
       </c>
       <c r="P2">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G3)^2+('1D'!$H$17-'1D'!$H3)^2)</f>
-        <v>131.53499360458261</v>
+        <v>95.623197045640268</v>
       </c>
       <c r="Q2">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G3)^2+('1D'!$H$18-'1D'!$H3)^2)</f>
-        <v>55.859395933412713</v>
+        <v>40.016560455123148</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>40.549237040456418</v>
+        <v>39.135969509896178</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>64.054411686518108</v>
+        <v>20.757662748492109</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2614,73 +2614,73 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>87.952805995030033</v>
+        <v>121.66117057486009</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>119.35210720369082</v>
+        <v>22.514167362361629</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>58.739954152863199</v>
+        <v>69.664104192591282</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>62.808375916842294</v>
+        <v>105.75240923628591</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>128.57974947059418</v>
+        <v>108.73730318274535</v>
       </c>
       <c r="I3">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
-        <v>89.897835396481582</v>
+        <v>44.617940448200251</v>
       </c>
       <c r="J3">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
-        <v>124.92344456859216</v>
+        <v>153.50711481573438</v>
       </c>
       <c r="K3">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
-        <v>119.02298282547551</v>
+        <v>108.56463396388651</v>
       </c>
       <c r="L3">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G4)^2+('1D'!$H$13-'1D'!$H4)^2)</f>
-        <v>65.670966512253273</v>
+        <v>87.917718482750033</v>
       </c>
       <c r="M3">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G4)^2+('1D'!$H$14-'1D'!$H4)^2)</f>
-        <v>52.533571410060084</v>
+        <v>117.97437213910244</v>
       </c>
       <c r="N3">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G4)^2+('1D'!$H$15-'1D'!$H4)^2)</f>
-        <v>68.953886202818651</v>
+        <v>54.329335021004823</v>
       </c>
       <c r="O3">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G4)^2+('1D'!$H$16-'1D'!$H4)^2)</f>
-        <v>34.602395325958774</v>
+        <v>50.432834801807424</v>
       </c>
       <c r="P3">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G4)^2+('1D'!$H$17-'1D'!$H4)^2)</f>
-        <v>69.963492164706437</v>
+        <v>113.63563688726249</v>
       </c>
       <c r="Q3">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G4)^2+('1D'!$H$18-'1D'!$H4)^2)</f>
-        <v>40.549237040456418</v>
+        <v>39.135969509896178</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>97.361983164005011</v>
+        <v>136.43687641266979</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>46.886914189276631</v>
+        <v>142.4160188873897</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>87.952805995030033</v>
+        <v>121.66117057486009</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2688,73 +2688,73 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>106.70933552799031</v>
+        <v>109.88512240640907</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>97.199571633406549</v>
+        <v>160.26550415955413</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>55.579478705420769</v>
+        <v>105.37266176294699</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>112.79860060094289</v>
+        <v>229.75866566957046</v>
       </c>
       <c r="I4">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
-        <v>175.2497107526566</v>
+        <v>137.62823661132583</v>
       </c>
       <c r="J4">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
-        <v>60.673387669757425</v>
+        <v>179.85719220249553</v>
       </c>
       <c r="K4">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
-        <v>120.26005097395804</v>
+        <v>74.549857329919476</v>
       </c>
       <c r="L4">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G5)^2+('1D'!$H$13-'1D'!$H5)^2)</f>
-        <v>148.54380070543826</v>
+        <v>120.66336997161096</v>
       </c>
       <c r="M4">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G5)^2+('1D'!$H$14-'1D'!$H5)^2)</f>
-        <v>75.778508739595267</v>
+        <v>214.8689967683091</v>
       </c>
       <c r="N4">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G5)^2+('1D'!$H$15-'1D'!$H5)^2)</f>
-        <v>93.68131802064525</v>
+        <v>150.27716947392332</v>
       </c>
       <c r="O4">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G5)^2+('1D'!$H$16-'1D'!$H5)^2)</f>
-        <v>54.446526533273136</v>
+        <v>99.05552477938906</v>
       </c>
       <c r="P4">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G5)^2+('1D'!$H$17-'1D'!$H5)^2)</f>
-        <v>141.37628076535654</v>
+        <v>229.24232842143775</v>
       </c>
       <c r="Q4">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G5)^2+('1D'!$H$18-'1D'!$H5)^2)</f>
-        <v>97.361983164005011</v>
+        <v>136.43687641266979</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>87.185834538220973</v>
+        <v>30.112032746317144</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>70.094524757611381</v>
+        <v>38.766390057999708</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>119.35210720369082</v>
+        <v>22.514167362361629</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>106.70933552799031</v>
+        <v>109.88512240640907</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2762,73 +2762,73 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>67.616623064171407</v>
+        <v>60.433920429758778</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>142.9865529253633</v>
+        <v>83.241333598217437</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>9.2657895917020383</v>
+        <v>120.83316220381933</v>
       </c>
       <c r="I5">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
-        <v>162.18482480818307</v>
+        <v>33.805051869906094</v>
       </c>
       <c r="J5">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
-        <v>69.914975611434699</v>
+        <v>133.81834547083756</v>
       </c>
       <c r="K5">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
-        <v>19.721246389007764</v>
+        <v>87.224014452989906</v>
       </c>
       <c r="L5">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G6)^2+('1D'!$H$13-'1D'!$H6)^2)</f>
-        <v>179.32568370418147</v>
+        <v>66.334411511803935</v>
       </c>
       <c r="M5">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G6)^2+('1D'!$H$14-'1D'!$H6)^2)</f>
-        <v>151.77188663709887</v>
+        <v>113.69249714646149</v>
       </c>
       <c r="N5">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G6)^2+('1D'!$H$15-'1D'!$H6)^2)</f>
-        <v>173.159681771842</v>
+        <v>46.346258699596468</v>
       </c>
       <c r="O5">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G6)^2+('1D'!$H$16-'1D'!$H6)^2)</f>
-        <v>112.93203568342312</v>
+        <v>27.936418681609997</v>
       </c>
       <c r="P5">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G6)^2+('1D'!$H$17-'1D'!$H6)^2)</f>
-        <v>189.04002354839952</v>
+        <v>119.65801424143891</v>
       </c>
       <c r="Q5">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G6)^2+('1D'!$H$18-'1D'!$H6)^2)</f>
-        <v>87.185834538220973</v>
+        <v>30.112032746317144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>20.258989212453208</v>
+        <v>31.182132336448859</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>51.285477478395244</v>
+        <v>65.600075998679898</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>58.739954152863199</v>
+        <v>69.664104192591282</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>97.199571633406549</v>
+        <v>160.26550415955413</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>67.616623064171407</v>
+        <v>60.433920429758778</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2836,73 +2836,73 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>104.89524815973017</v>
+        <v>88.512203210557232</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>76.691621962001733</v>
+        <v>96.128080281135354</v>
       </c>
       <c r="I6">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
-        <v>98.53630094273835</v>
+        <v>26.667770319752748</v>
       </c>
       <c r="J6">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
-        <v>101.90567666711337</v>
+        <v>99.578192466861069</v>
       </c>
       <c r="K6">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
-        <v>62.425890349928167</v>
+        <v>111.21431337293461</v>
       </c>
       <c r="L6">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G7)^2+('1D'!$H$13-'1D'!$H7)^2)</f>
-        <v>112.5903449555521</v>
+        <v>59.857581953827868</v>
       </c>
       <c r="M6">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G7)^2+('1D'!$H$14-'1D'!$H7)^2)</f>
-        <v>104.37121866896176</v>
+        <v>54.941222560541817</v>
       </c>
       <c r="N6">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G7)^2+('1D'!$H$15-'1D'!$H7)^2)</f>
-        <v>124.05387996456217</v>
+        <v>15.347869320688021</v>
       </c>
       <c r="O6">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G7)^2+('1D'!$H$16-'1D'!$H7)^2)</f>
-        <v>69.013177210102697</v>
+        <v>61.212870935281529</v>
       </c>
       <c r="P6">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G7)^2+('1D'!$H$17-'1D'!$H7)^2)</f>
-        <v>125.16835233017892</v>
+        <v>78.767790185593867</v>
       </c>
       <c r="Q6">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G7)^2+('1D'!$H$18-'1D'!$H7)^2)</f>
-        <v>20.258989212453208</v>
+        <v>31.182132336448859</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>94.056039652387256</v>
+        <v>85.477247824586016</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>72.892386680575584</v>
+        <v>119.23481443910192</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>62.808375916842294</v>
+        <v>105.75240923628591</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>55.579478705420769</v>
+        <v>105.37266176294699</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>142.9865529253633</v>
+        <v>83.241333598217437</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>104.89524815973017</v>
+        <v>88.512203210557232</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2910,73 +2910,73 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>150.99347794722439</v>
+        <v>182.67177721772549</v>
       </c>
       <c r="I7">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
-        <v>150.60671687871601</v>
+        <v>81.905792229150691</v>
       </c>
       <c r="J7">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
-        <v>114.19479295183771</v>
+        <v>74.712942588251693</v>
       </c>
       <c r="K7">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
-        <v>150.88647374088271</v>
+        <v>32.585135522830271</v>
       </c>
       <c r="L7">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G8)^2+('1D'!$H$13-'1D'!$H8)^2)</f>
-        <v>106.00322708274474</v>
+        <v>28.783907130595914</v>
       </c>
       <c r="M7">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G8)^2+('1D'!$H$14-'1D'!$H8)^2)</f>
-        <v>22.518760019776156</v>
+        <v>133.07883511382187</v>
       </c>
       <c r="N7">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G8)^2+('1D'!$H$15-'1D'!$H8)^2)</f>
-        <v>38.114927279275285</v>
+        <v>88.528109049876434</v>
       </c>
       <c r="O7">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G8)^2+('1D'!$H$16-'1D'!$H8)^2)</f>
-        <v>35.943057950295461</v>
+        <v>55.413886894957649</v>
       </c>
       <c r="P7">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G8)^2+('1D'!$H$17-'1D'!$H8)^2)</f>
-        <v>92.170177525651923</v>
+        <v>167.23269310392354</v>
       </c>
       <c r="Q7">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G8)^2+('1D'!$H$18-'1D'!$H8)^2)</f>
-        <v>94.056039652387256</v>
+        <v>85.477247824586016</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
-        <v>96.359520465320557</v>
+        <v>100.5450732698494</v>
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>78.162551368250561</v>
+        <v>88.336416391843684</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>128.57974947059418</v>
+        <v>108.73730318274535</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>112.79860060094289</v>
+        <v>229.75866566957046</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>9.2657895917020383</v>
+        <v>120.83316220381933</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>76.691621962001733</v>
+        <v>96.128080281135354</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>150.99347794722439</v>
+        <v>182.67177721772549</v>
       </c>
       <c r="H8">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2984,73 +2984,73 @@
       </c>
       <c r="I8">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
-        <v>170.44993687042989</v>
+        <v>102.4694606879641</v>
       </c>
       <c r="J8">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
-        <v>71.606032244146192</v>
+        <v>189.22198639944031</v>
       </c>
       <c r="K8">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
-        <v>23.347842816718405</v>
+        <v>200.17853489266147</v>
       </c>
       <c r="L8">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G9)^2+('1D'!$H$13-'1D'!$H9)^2)</f>
-        <v>188.55666698102706</v>
+        <v>154.7871462572229</v>
       </c>
       <c r="M8">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G9)^2+('1D'!$H$14-'1D'!$H9)^2)</f>
-        <v>160.33801216159659</v>
+        <v>85.37526365275798</v>
       </c>
       <c r="N8">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G9)^2+('1D'!$H$15-'1D'!$H9)^2)</f>
-        <v>181.7458991092372</v>
+        <v>94.182426563481911</v>
       </c>
       <c r="O8">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G9)^2+('1D'!$H$16-'1D'!$H9)^2)</f>
-        <v>121.55913616661125</v>
+        <v>140.48850135101259</v>
       </c>
       <c r="P8">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G9)^2+('1D'!$H$17-'1D'!$H9)^2)</f>
-        <v>198.29344603371214</v>
+        <v>34.194852384955958</v>
       </c>
       <c r="Q8">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G9)^2+('1D'!$H$18-'1D'!$H9)^2)</f>
-        <v>96.359520465320557</v>
+        <v>100.5450732698494</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
-        <v>84.746760469125647</v>
+        <v>5.7649684581452707</v>
       </c>
       <c r="B9">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
-        <v>139.5122223301656</v>
+        <v>45.687322149579948</v>
       </c>
       <c r="C9">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
-        <v>89.897835396481582</v>
+        <v>44.617940448200251</v>
       </c>
       <c r="D9">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
-        <v>175.2497107526566</v>
+        <v>137.62823661132583</v>
       </c>
       <c r="E9">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
-        <v>162.18482480818307</v>
+        <v>33.805051869906094</v>
       </c>
       <c r="F9">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
-        <v>98.53630094273835</v>
+        <v>26.667770319752748</v>
       </c>
       <c r="G9">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
-        <v>150.60671687871601</v>
+        <v>81.905792229150691</v>
       </c>
       <c r="H9">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
-        <v>170.44993687042989</v>
+        <v>102.4694606879641</v>
       </c>
       <c r="I9">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
@@ -3058,73 +3058,73 @@
       </c>
       <c r="J9">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
-        <v>198.10607287264935</v>
+        <v>112.87271595314076</v>
       </c>
       <c r="K9">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
-        <v>150.64219668070004</v>
+        <v>97.761293081758311</v>
       </c>
       <c r="L9">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G10)^2+('1D'!$H$13-'1D'!$H10)^2)</f>
-        <v>68.742744687015076</v>
+        <v>56.238273795779207</v>
       </c>
       <c r="M9">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G10)^2+('1D'!$H$14-'1D'!$H10)^2)</f>
-        <v>134.6762204968274</v>
+        <v>80.299248008882557</v>
       </c>
       <c r="N9">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G10)^2+('1D'!$H$15-'1D'!$H10)^2)</f>
-        <v>142.74283905200565</v>
+        <v>12.967028917469216</v>
       </c>
       <c r="O9">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G10)^2+('1D'!$H$16-'1D'!$H10)^2)</f>
-        <v>124.23731069080628</v>
+        <v>39.984687612630488</v>
       </c>
       <c r="P9">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G10)^2+('1D'!$H$17-'1D'!$H10)^2)</f>
-        <v>96.335042141361086</v>
+        <v>93.449300465585637</v>
       </c>
       <c r="Q9">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G10)^2+('1D'!$H$18-'1D'!$H10)^2)</f>
-        <v>84.746760469125647</v>
+        <v>5.7649684581452707</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
-        <v>113.36311399145616</v>
+        <v>118.52027793197102</v>
       </c>
       <c r="B10">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
-        <v>61.298935485278818</v>
+        <v>158.53663904209765</v>
       </c>
       <c r="C10">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
-        <v>124.92344456859216</v>
+        <v>153.50711481573438</v>
       </c>
       <c r="D10">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
-        <v>60.673387669757425</v>
+        <v>179.85719220249553</v>
       </c>
       <c r="E10">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
-        <v>69.914975611434699</v>
+        <v>133.81834547083756</v>
       </c>
       <c r="F10">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
-        <v>101.90567666711337</v>
+        <v>99.578192466861069</v>
       </c>
       <c r="G10">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
-        <v>114.19479295183771</v>
+        <v>74.712942588251693</v>
       </c>
       <c r="H10">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
-        <v>71.606032244146192</v>
+        <v>189.22198639944031</v>
       </c>
       <c r="I10">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
-        <v>198.10607287264935</v>
+        <v>112.87271595314076</v>
       </c>
       <c r="J10">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
@@ -3132,73 +3132,73 @@
       </c>
       <c r="K10">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
-        <v>88.888580983900084</v>
+        <v>105.68327105463315</v>
       </c>
       <c r="L10">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G11)^2+('1D'!$H$13-'1D'!$H11)^2)</f>
-        <v>190.5212279702946</v>
+        <v>70.375713485132721</v>
       </c>
       <c r="M10">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G11)^2+('1D'!$H$14-'1D'!$H11)^2)</f>
-        <v>131.73403371212859</v>
+        <v>112.44969297300199</v>
       </c>
       <c r="N10">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G11)^2+('1D'!$H$15-'1D'!$H11)^2)</f>
-        <v>151.54863207586419</v>
+        <v>110.33622004495021</v>
       </c>
       <c r="O10">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G11)^2+('1D'!$H$16-'1D'!$H11)^2)</f>
-        <v>99.879141533820871</v>
+        <v>111.86311925614764</v>
       </c>
       <c r="P10">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G11)^2+('1D'!$H$17-'1D'!$H11)^2)</f>
-        <v>190.02419875828804</v>
+        <v>162.46823163111344</v>
       </c>
       <c r="Q10">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G11)^2+('1D'!$H$18-'1D'!$H11)^2)</f>
-        <v>113.36311399145616</v>
+        <v>118.52027793197102</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G12)^2+('1D'!$H$2-'1D'!$H12)^2)</f>
-        <v>82.684750744300729</v>
+        <v>99.731960764257707</v>
       </c>
       <c r="B11">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
-        <v>79.091818701183328</v>
+        <v>125.9098911410467</v>
       </c>
       <c r="C11">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
-        <v>119.02298282547551</v>
+        <v>108.56463396388651</v>
       </c>
       <c r="D11">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
-        <v>120.26005097395804</v>
+        <v>74.549857329919476</v>
       </c>
       <c r="E11">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
-        <v>19.721246389007764</v>
+        <v>87.224014452989906</v>
       </c>
       <c r="F11">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
-        <v>62.425890349928167</v>
+        <v>111.21431337293461</v>
       </c>
       <c r="G11">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
-        <v>150.88647374088271</v>
+        <v>32.585135522830271</v>
       </c>
       <c r="H11">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
-        <v>23.347842816718405</v>
+        <v>200.17853489266147</v>
       </c>
       <c r="I11">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
-        <v>150.64219668070004</v>
+        <v>97.761293081758311</v>
       </c>
       <c r="J11">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
-        <v>88.888580983900084</v>
+        <v>105.68327105463315</v>
       </c>
       <c r="K11">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
@@ -3206,73 +3206,73 @@
       </c>
       <c r="L11">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G12)^2+('1D'!$H$13-'1D'!$H12)^2)</f>
-        <v>174.85529821613582</v>
+        <v>55.97050541321012</v>
       </c>
       <c r="M11">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G12)^2+('1D'!$H$14-'1D'!$H12)^2)</f>
-        <v>157.0513308966583</v>
+        <v>160.59709553259449</v>
       </c>
       <c r="N11">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G12)^2+('1D'!$H$15-'1D'!$H12)^2)</f>
-        <v>178.16014278826222</v>
+        <v>107.35037850119751</v>
       </c>
       <c r="O11">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G12)^2+('1D'!$H$16-'1D'!$H12)^2)</f>
-        <v>118.3359519835552</v>
+        <v>61.213112039543226</v>
       </c>
       <c r="P11">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G12)^2+('1D'!$H$17-'1D'!$H12)^2)</f>
-        <v>187.29402967003608</v>
+        <v>189.16352084925828</v>
       </c>
       <c r="Q11">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G12)^2+('1D'!$H$18-'1D'!$H12)^2)</f>
-        <v>82.684750744300729</v>
+        <v>99.731960764257707</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G13)^2+('1D'!$H$2-'1D'!$H13)^2)</f>
-        <v>92.439520639203224</v>
+        <v>60.62827875845035</v>
       </c>
       <c r="B12">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G13)^2+('1D'!$H$3-'1D'!$H13)^2)</f>
-        <v>129.71700787269032</v>
+        <v>97.880483900325146</v>
       </c>
       <c r="C12">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G13)^2+('1D'!$H$4-'1D'!$H13)^2)</f>
-        <v>65.670966512253273</v>
+        <v>87.917718482750033</v>
       </c>
       <c r="D12">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G13)^2+('1D'!$H$5-'1D'!$H13)^2)</f>
-        <v>148.54380070543826</v>
+        <v>120.66336997161096</v>
       </c>
       <c r="E12">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G13)^2+('1D'!$H$6-'1D'!$H13)^2)</f>
-        <v>179.32568370418147</v>
+        <v>66.334411511803935</v>
       </c>
       <c r="F12">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G13)^2+('1D'!$H$7-'1D'!$H13)^2)</f>
-        <v>112.5903449555521</v>
+        <v>59.857581953827868</v>
       </c>
       <c r="G12">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G13)^2+('1D'!$H$8-'1D'!$H13)^2)</f>
-        <v>106.00322708274474</v>
+        <v>28.783907130595914</v>
       </c>
       <c r="H12">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G13)^2+('1D'!$H$9-'1D'!$H13)^2)</f>
-        <v>188.55666698102706</v>
+        <v>154.7871462572229</v>
       </c>
       <c r="I12">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G13)^2+('1D'!$H$10-'1D'!$H13)^2)</f>
-        <v>68.742744687015076</v>
+        <v>56.238273795779207</v>
       </c>
       <c r="J12">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G13)^2+('1D'!$H$11-'1D'!$H13)^2)</f>
-        <v>190.5212279702946</v>
+        <v>70.375713485132721</v>
       </c>
       <c r="K12">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G13)^2+('1D'!$H$12-'1D'!$H13)^2)</f>
-        <v>174.85529821613582</v>
+        <v>55.97050541321012</v>
       </c>
       <c r="L12">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G13)^2+('1D'!$H$13-'1D'!$H13)^2)</f>
@@ -3280,73 +3280,73 @@
       </c>
       <c r="M12">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G13)^2+('1D'!$H$14-'1D'!$H13)^2)</f>
-        <v>84.867469587935815</v>
+        <v>105.17022629021011</v>
       </c>
       <c r="N12">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G13)^2+('1D'!$H$15-'1D'!$H13)^2)</f>
-        <v>84.721178948766948</v>
+        <v>61.071485990451542</v>
       </c>
       <c r="O12">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G13)^2+('1D'!$H$16-'1D'!$H13)^2)</f>
-        <v>94.50117317072862</v>
+        <v>41.812383162910912</v>
       </c>
       <c r="P12">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G13)^2+('1D'!$H$17-'1D'!$H13)^2)</f>
-        <v>27.842423295993719</v>
+        <v>138.5022825792671</v>
       </c>
       <c r="Q12">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G13)^2+('1D'!$H$18-'1D'!$H13)^2)</f>
-        <v>92.439520639203224</v>
+        <v>60.62827875845035</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G14)^2+('1D'!$H$2-'1D'!$H14)^2)</f>
-        <v>89.932375116571549</v>
+        <v>83.581696740921714</v>
       </c>
       <c r="B13">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G14)^2+('1D'!$H$3-'1D'!$H14)^2)</f>
-        <v>82.998907933070569</v>
+        <v>106.96456162661684</v>
       </c>
       <c r="C13">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G14)^2+('1D'!$H$4-'1D'!$H14)^2)</f>
-        <v>52.533571410060084</v>
+        <v>117.97437213910244</v>
       </c>
       <c r="D13">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G14)^2+('1D'!$H$5-'1D'!$H14)^2)</f>
-        <v>75.778508739595267</v>
+        <v>214.8689967683091</v>
       </c>
       <c r="E13">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G14)^2+('1D'!$H$6-'1D'!$H14)^2)</f>
-        <v>151.77188663709887</v>
+        <v>113.69249714646149</v>
       </c>
       <c r="F13">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G14)^2+('1D'!$H$7-'1D'!$H14)^2)</f>
-        <v>104.37121866896176</v>
+        <v>54.941222560541817</v>
       </c>
       <c r="G13">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G14)^2+('1D'!$H$8-'1D'!$H14)^2)</f>
-        <v>22.518760019776156</v>
+        <v>133.07883511382187</v>
       </c>
       <c r="H13">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G14)^2+('1D'!$H$9-'1D'!$H14)^2)</f>
-        <v>160.33801216159659</v>
+        <v>85.37526365275798</v>
       </c>
       <c r="I13">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G14)^2+('1D'!$H$10-'1D'!$H14)^2)</f>
-        <v>134.6762204968274</v>
+        <v>80.299248008882557</v>
       </c>
       <c r="J13">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G14)^2+('1D'!$H$11-'1D'!$H14)^2)</f>
-        <v>131.73403371212859</v>
+        <v>112.44969297300199</v>
       </c>
       <c r="K13">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G14)^2+('1D'!$H$12-'1D'!$H14)^2)</f>
-        <v>157.0513308966583</v>
+        <v>160.59709553259449</v>
       </c>
       <c r="L13">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G14)^2+('1D'!$H$13-'1D'!$H14)^2)</f>
-        <v>84.867469587935815</v>
+        <v>105.17022629021011</v>
       </c>
       <c r="M13">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G14)^2+('1D'!$H$14-'1D'!$H14)^2)</f>
@@ -3354,73 +3354,73 @@
       </c>
       <c r="N13">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G14)^2+('1D'!$H$15-'1D'!$H14)^2)</f>
-        <v>21.42023536124638</v>
+        <v>67.435602091963176</v>
       </c>
       <c r="O13">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G14)^2+('1D'!$H$16-'1D'!$H14)^2)</f>
-        <v>38.885740517643598</v>
+        <v>115.94261012102605</v>
       </c>
       <c r="P13">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G14)^2+('1D'!$H$17-'1D'!$H14)^2)</f>
-        <v>69.721328924829919</v>
+        <v>53.248160536156504</v>
       </c>
       <c r="Q13">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G14)^2+('1D'!$H$18-'1D'!$H14)^2)</f>
-        <v>89.932375116571549</v>
+        <v>83.581696740921714</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G15)^2+('1D'!$H$2-'1D'!$H15)^2)</f>
-        <v>108.37740808836749</v>
+        <v>16.366395358833106</v>
       </c>
       <c r="B14">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G15)^2+('1D'!$H$3-'1D'!$H15)^2)</f>
-        <v>104.38644865108897</v>
+        <v>50.950826865024432</v>
       </c>
       <c r="C14">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G15)^2+('1D'!$H$4-'1D'!$H15)^2)</f>
-        <v>68.953886202818651</v>
+        <v>54.329335021004823</v>
       </c>
       <c r="D14">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G15)^2+('1D'!$H$5-'1D'!$H15)^2)</f>
-        <v>93.68131802064525</v>
+        <v>150.27716947392332</v>
       </c>
       <c r="E14">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G15)^2+('1D'!$H$6-'1D'!$H15)^2)</f>
-        <v>173.159681771842</v>
+        <v>46.346258699596468</v>
       </c>
       <c r="F14">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G15)^2+('1D'!$H$7-'1D'!$H15)^2)</f>
-        <v>124.05387996456217</v>
+        <v>15.347869320688021</v>
       </c>
       <c r="G14">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G15)^2+('1D'!$H$8-'1D'!$H15)^2)</f>
-        <v>38.114927279275285</v>
+        <v>88.528109049876434</v>
       </c>
       <c r="H14">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G15)^2+('1D'!$H$9-'1D'!$H15)^2)</f>
-        <v>181.7458991092372</v>
+        <v>94.182426563481911</v>
       </c>
       <c r="I14">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G15)^2+('1D'!$H$10-'1D'!$H15)^2)</f>
-        <v>142.74283905200565</v>
+        <v>12.967028917469216</v>
       </c>
       <c r="J14">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G15)^2+('1D'!$H$11-'1D'!$H15)^2)</f>
-        <v>151.54863207586419</v>
+        <v>110.33622004495021</v>
       </c>
       <c r="K14">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G15)^2+('1D'!$H$12-'1D'!$H15)^2)</f>
-        <v>178.16014278826222</v>
+        <v>107.35037850119751</v>
       </c>
       <c r="L14">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G15)^2+('1D'!$H$13-'1D'!$H15)^2)</f>
-        <v>84.721178948766948</v>
+        <v>61.071485990451542</v>
       </c>
       <c r="M14">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G15)^2+('1D'!$H$14-'1D'!$H15)^2)</f>
-        <v>21.42023536124638</v>
+        <v>67.435602091963176</v>
       </c>
       <c r="N14">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G15)^2+('1D'!$H$15-'1D'!$H15)^2)</f>
@@ -3428,73 +3428,73 @@
       </c>
       <c r="O14">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G15)^2+('1D'!$H$16-'1D'!$H15)^2)</f>
-        <v>60.235960171711248</v>
+        <v>51.936184324318418</v>
       </c>
       <c r="P14">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G15)^2+('1D'!$H$17-'1D'!$H15)^2)</f>
-        <v>63.657106284241074</v>
+        <v>82.228537854219496</v>
       </c>
       <c r="Q14">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G15)^2+('1D'!$H$18-'1D'!$H15)^2)</f>
-        <v>108.37740808836749</v>
+        <v>16.366395358833106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G16)^2+('1D'!$H$2-'1D'!$H16)^2)</f>
-        <v>58.567140442369769</v>
+        <v>40.377804908633159</v>
       </c>
       <c r="B15">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G16)^2+('1D'!$H$3-'1D'!$H16)^2)</f>
-        <v>45.068812777381332</v>
+        <v>65.489310038517729</v>
       </c>
       <c r="C15">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G16)^2+('1D'!$H$4-'1D'!$H16)^2)</f>
-        <v>34.602395325958774</v>
+        <v>50.432834801807424</v>
       </c>
       <c r="D15">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G16)^2+('1D'!$H$5-'1D'!$H16)^2)</f>
-        <v>54.446526533273136</v>
+        <v>99.05552477938906</v>
       </c>
       <c r="E15">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G16)^2+('1D'!$H$6-'1D'!$H16)^2)</f>
-        <v>112.93203568342312</v>
+        <v>27.936418681609997</v>
       </c>
       <c r="F15">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G16)^2+('1D'!$H$7-'1D'!$H16)^2)</f>
-        <v>69.013177210102697</v>
+        <v>61.212870935281529</v>
       </c>
       <c r="G15">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G16)^2+('1D'!$H$8-'1D'!$H16)^2)</f>
-        <v>35.943057950295461</v>
+        <v>55.413886894957649</v>
       </c>
       <c r="H15">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G16)^2+('1D'!$H$9-'1D'!$H16)^2)</f>
-        <v>121.55913616661125</v>
+        <v>140.48850135101259</v>
       </c>
       <c r="I15">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G16)^2+('1D'!$H$10-'1D'!$H16)^2)</f>
-        <v>124.23731069080628</v>
+        <v>39.984687612630488</v>
       </c>
       <c r="J15">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G16)^2+('1D'!$H$11-'1D'!$H16)^2)</f>
-        <v>99.879141533820871</v>
+        <v>111.86311925614764</v>
       </c>
       <c r="K15">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G16)^2+('1D'!$H$12-'1D'!$H16)^2)</f>
-        <v>118.3359519835552</v>
+        <v>61.213112039543226</v>
       </c>
       <c r="L15">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G16)^2+('1D'!$H$13-'1D'!$H16)^2)</f>
-        <v>94.50117317072862</v>
+        <v>41.812383162910912</v>
       </c>
       <c r="M15">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G16)^2+('1D'!$H$14-'1D'!$H16)^2)</f>
-        <v>38.885740517643598</v>
+        <v>115.94261012102605</v>
       </c>
       <c r="N15">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G16)^2+('1D'!$H$15-'1D'!$H16)^2)</f>
-        <v>60.235960171711248</v>
+        <v>51.936184324318418</v>
       </c>
       <c r="O15">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G16)^2+('1D'!$H$16-'1D'!$H16)^2)</f>
@@ -3502,73 +3502,73 @@
       </c>
       <c r="P15">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G16)^2+('1D'!$H$17-'1D'!$H16)^2)</f>
-        <v>90.383598399224311</v>
+        <v>133.41976994839169</v>
       </c>
       <c r="Q15">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G16)^2+('1D'!$H$18-'1D'!$H16)^2)</f>
-        <v>58.567140442369769</v>
+        <v>40.377804908633159</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G17)^2+('1D'!$H$2-'1D'!$H17)^2)</f>
-        <v>105.07163189379425</v>
+        <v>93.463976813472712</v>
       </c>
       <c r="B16">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G17)^2+('1D'!$H$3-'1D'!$H17)^2)</f>
-        <v>131.53499360458261</v>
+        <v>95.623197045640268</v>
       </c>
       <c r="C16">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G17)^2+('1D'!$H$4-'1D'!$H17)^2)</f>
-        <v>69.963492164706437</v>
+        <v>113.63563688726249</v>
       </c>
       <c r="D16">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G17)^2+('1D'!$H$5-'1D'!$H17)^2)</f>
-        <v>141.37628076535654</v>
+        <v>229.24232842143775</v>
       </c>
       <c r="E16">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G17)^2+('1D'!$H$6-'1D'!$H17)^2)</f>
-        <v>189.04002354839952</v>
+        <v>119.65801424143891</v>
       </c>
       <c r="F16">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G17)^2+('1D'!$H$7-'1D'!$H17)^2)</f>
-        <v>125.16835233017892</v>
+        <v>78.767790185593867</v>
       </c>
       <c r="G16">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G17)^2+('1D'!$H$8-'1D'!$H17)^2)</f>
-        <v>92.170177525651923</v>
+        <v>167.23269310392354</v>
       </c>
       <c r="H16">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G17)^2+('1D'!$H$9-'1D'!$H17)^2)</f>
-        <v>198.29344603371214</v>
+        <v>34.194852384955958</v>
       </c>
       <c r="I16">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G17)^2+('1D'!$H$10-'1D'!$H17)^2)</f>
-        <v>96.335042141361086</v>
+        <v>93.449300465585637</v>
       </c>
       <c r="J16">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G17)^2+('1D'!$H$11-'1D'!$H17)^2)</f>
-        <v>190.02419875828804</v>
+        <v>162.46823163111344</v>
       </c>
       <c r="K16">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G17)^2+('1D'!$H$12-'1D'!$H17)^2)</f>
-        <v>187.29402967003608</v>
+        <v>189.16352084925828</v>
       </c>
       <c r="L16">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G17)^2+('1D'!$H$13-'1D'!$H17)^2)</f>
-        <v>27.842423295993719</v>
+        <v>138.5022825792671</v>
       </c>
       <c r="M16">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G17)^2+('1D'!$H$14-'1D'!$H17)^2)</f>
-        <v>69.721328924829919</v>
+        <v>53.248160536156504</v>
       </c>
       <c r="N16">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G17)^2+('1D'!$H$15-'1D'!$H17)^2)</f>
-        <v>63.657106284241074</v>
+        <v>82.228537854219496</v>
       </c>
       <c r="O16">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G17)^2+('1D'!$H$16-'1D'!$H17)^2)</f>
-        <v>90.383598399224311</v>
+        <v>133.41976994839169</v>
       </c>
       <c r="P16">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G17)^2+('1D'!$H$17-'1D'!$H17)^2)</f>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="Q16">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G17)^2+('1D'!$H$18-'1D'!$H17)^2)</f>
-        <v>105.07163189379425</v>
+        <v>93.463976813472712</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3586,63 +3586,63 @@
       </c>
       <c r="B17">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G18)^2+('1D'!$H$3-'1D'!$H18)^2)</f>
-        <v>55.859395933412713</v>
+        <v>40.016560455123148</v>
       </c>
       <c r="C17">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G18)^2+('1D'!$H$4-'1D'!$H18)^2)</f>
-        <v>40.549237040456418</v>
+        <v>39.135969509896178</v>
       </c>
       <c r="D17">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G18)^2+('1D'!$H$5-'1D'!$H18)^2)</f>
-        <v>97.361983164005011</v>
+        <v>136.43687641266979</v>
       </c>
       <c r="E17">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G18)^2+('1D'!$H$6-'1D'!$H18)^2)</f>
-        <v>87.185834538220973</v>
+        <v>30.112032746317144</v>
       </c>
       <c r="F17">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G18)^2+('1D'!$H$7-'1D'!$H18)^2)</f>
-        <v>20.258989212453208</v>
+        <v>31.182132336448859</v>
       </c>
       <c r="G17">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G18)^2+('1D'!$H$8-'1D'!$H18)^2)</f>
-        <v>94.056039652387256</v>
+        <v>85.477247824586016</v>
       </c>
       <c r="H17">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G18)^2+('1D'!$H$9-'1D'!$H18)^2)</f>
-        <v>96.359520465320557</v>
+        <v>100.5450732698494</v>
       </c>
       <c r="I17">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G18)^2+('1D'!$H$10-'1D'!$H18)^2)</f>
-        <v>84.746760469125647</v>
+        <v>5.7649684581452707</v>
       </c>
       <c r="J17">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G18)^2+('1D'!$H$11-'1D'!$H18)^2)</f>
-        <v>113.36311399145616</v>
+        <v>118.52027793197102</v>
       </c>
       <c r="K17">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G18)^2+('1D'!$H$12-'1D'!$H18)^2)</f>
-        <v>82.684750744300729</v>
+        <v>99.731960764257707</v>
       </c>
       <c r="L17">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G18)^2+('1D'!$H$13-'1D'!$H18)^2)</f>
-        <v>92.439520639203224</v>
+        <v>60.62827875845035</v>
       </c>
       <c r="M17">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G18)^2+('1D'!$H$14-'1D'!$H18)^2)</f>
-        <v>89.932375116571549</v>
+        <v>83.581696740921714</v>
       </c>
       <c r="N17">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G18)^2+('1D'!$H$15-'1D'!$H18)^2)</f>
-        <v>108.37740808836749</v>
+        <v>16.366395358833106</v>
       </c>
       <c r="O17">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G18)^2+('1D'!$H$16-'1D'!$H18)^2)</f>
-        <v>58.567140442369769</v>
+        <v>40.377804908633159</v>
       </c>
       <c r="P17">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G18)^2+('1D'!$H$17-'1D'!$H18)^2)</f>
-        <v>105.07163189379425</v>
+        <v>93.463976813472712</v>
       </c>
       <c r="Q17">
         <f>SQRT(('1D'!$G$18-'1D'!$G18)^2+('1D'!$H$18-'1D'!$H18)^2)</f>
@@ -3661,8 +3661,8 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3674,63 +3674,63 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>0.69824244916765887</v>
+        <v>0.50020700568903931</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>0.50686546300570523</v>
+        <v>0.48919961887370222</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>1.2170247895500625</v>
+        <v>1.7054609551583724</v>
       </c>
       <c r="E1">
+        <f ca="1">Distances!E1/80</f>
+        <v>0.37640040932896429</v>
+      </c>
+      <c r="F1">
         <f ca="1">Distances!F1/80</f>
-        <v>0.25323736515566508</v>
-      </c>
-      <c r="F1">
-        <f ca="1">Distances!G1/80</f>
-        <v>1.1757004956548407</v>
+        <v>0.38977665420561075</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>1.1757004956548407</v>
+        <v>1.0684655978073252</v>
       </c>
       <c r="H1">
         <f ca="1">Distances!H1/80</f>
-        <v>1.204494005816507</v>
+        <v>1.2568134158731175</v>
       </c>
       <c r="I1">
         <f ca="1">Distances!I1/80</f>
-        <v>1.0593345058640706</v>
+        <v>7.2062105726815887E-2</v>
       </c>
       <c r="J1">
         <f ca="1">Distances!J1/80</f>
-        <v>1.417038924893202</v>
+        <v>1.4815034741496378</v>
       </c>
       <c r="K1">
         <f ca="1">Distances!K1/80</f>
-        <v>1.0335593843037592</v>
+        <v>1.2466495095532213</v>
       </c>
       <c r="L1">
         <f ca="1">Distances!L1/80</f>
-        <v>1.1554940079900402</v>
+        <v>0.75785348448062939</v>
       </c>
       <c r="M1">
         <f ca="1">Distances!M1/80</f>
-        <v>1.1241546889571443</v>
+        <v>1.0447712092615213</v>
       </c>
       <c r="N1">
         <f ca="1">Distances!N1/80</f>
-        <v>1.3547176011045936</v>
+        <v>0.20457994198541382</v>
       </c>
       <c r="O1">
         <f ca="1">Distances!O1/80</f>
-        <v>0.73208925552962212</v>
+        <v>0.50472256135791449</v>
       </c>
       <c r="P1">
         <f ca="1">Distances!P1/80</f>
-        <v>1.313395398672428</v>
+        <v>1.1682997101684089</v>
       </c>
       <c r="Q1">
         <f>Distances!Q1/80</f>
@@ -3740,7 +3740,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>0.69824244916765887</v>
+        <v>0.50020700568903931</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -3748,73 +3748,73 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>0.80068014608147631</v>
+        <v>0.25947078435615134</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>0.58608642736595784</v>
+        <v>1.7802002360923712</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>0.87618155947014231</v>
+        <v>0.48457987572499633</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>0.64106846847994059</v>
+        <v>0.82000094998349871</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>0.91115483350719484</v>
+        <v>1.4904351804887741</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>0.97703189210313202</v>
+        <v>1.104205204898046</v>
       </c>
       <c r="I2">
         <f ca="1">Distances!I2/80</f>
-        <v>1.74390277912707</v>
+        <v>0.5710915268697494</v>
       </c>
       <c r="J2">
         <f ca="1">Distances!J2/80</f>
-        <v>0.76623669356598523</v>
+        <v>1.9817079880262205</v>
       </c>
       <c r="K2">
         <f ca="1">Distances!K2/80</f>
-        <v>0.98864773376479165</v>
+        <v>1.5738736392630837</v>
       </c>
       <c r="L2">
         <f ca="1">Distances!L2/80</f>
-        <v>1.6214625984086291</v>
+        <v>1.2235060487540643</v>
       </c>
       <c r="M2">
         <f ca="1">Distances!M2/80</f>
-        <v>1.0374863491633821</v>
+        <v>1.3370570203327106</v>
       </c>
       <c r="N2">
         <f ca="1">Distances!N2/80</f>
-        <v>1.3048306081386121</v>
+        <v>0.63688533581280538</v>
       </c>
       <c r="O2">
         <f ca="1">Distances!O2/80</f>
-        <v>0.56336015971726661</v>
+        <v>0.81861637548147159</v>
       </c>
       <c r="P2">
         <f ca="1">Distances!P2/80</f>
-        <v>1.6441874200572826</v>
+        <v>1.1952899630705034</v>
       </c>
       <c r="Q2">
         <f ca="1">Distances!Q2/80</f>
-        <v>0.69824244916765887</v>
+        <v>0.50020700568903931</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>0.50686546300570523</v>
+        <v>0.48919961887370222</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>0.80068014608147631</v>
+        <v>0.25947078435615134</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -3822,73 +3822,73 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>1.0994100749378755</v>
+        <v>1.5207646321857511</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>1.4919013400461352</v>
+        <v>0.28142709202952038</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>0.73424942691078998</v>
+        <v>0.87080130240739106</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>0.7851046989605287</v>
+        <v>1.3219051154535739</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>1.6072468683824273</v>
+        <v>1.359216289784317</v>
       </c>
       <c r="I3">
         <f ca="1">Distances!I3/80</f>
-        <v>1.1237229424560198</v>
+        <v>0.55772425560250316</v>
       </c>
       <c r="J3">
         <f ca="1">Distances!J3/80</f>
-        <v>1.561543057107402</v>
+        <v>1.9188389351966797</v>
       </c>
       <c r="K3">
         <f ca="1">Distances!K3/80</f>
-        <v>1.487787285318444</v>
+        <v>1.3570579245485814</v>
       </c>
       <c r="L3">
         <f ca="1">Distances!L3/80</f>
-        <v>0.82088708140316591</v>
+        <v>1.0989714810343754</v>
       </c>
       <c r="M3">
         <f ca="1">Distances!M3/80</f>
-        <v>0.656669642625751</v>
+        <v>1.4746796517387806</v>
       </c>
       <c r="N3">
         <f ca="1">Distances!N3/80</f>
-        <v>0.86192357753523319</v>
+        <v>0.67911668776256029</v>
       </c>
       <c r="O3">
         <f ca="1">Distances!O3/80</f>
-        <v>0.43252994157448466</v>
+        <v>0.63041043502259275</v>
       </c>
       <c r="P3">
         <f ca="1">Distances!P3/80</f>
-        <v>0.87454365205883045</v>
+        <v>1.4204454610907811</v>
       </c>
       <c r="Q3">
         <f ca="1">Distances!Q3/80</f>
-        <v>0.50686546300570523</v>
+        <v>0.48919961887370222</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>1.2170247895500625</v>
+        <v>1.7054609551583724</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>0.58608642736595784</v>
+        <v>1.7802002360923712</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>1.0994100749378755</v>
+        <v>1.5207646321857511</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -3896,73 +3896,73 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>1.3338666940998789</v>
+        <v>1.3735640300801133</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>1.214994645417582</v>
+        <v>2.0033188019944266</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>0.69474348381775963</v>
+        <v>1.3171582720368373</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>1.4099825075117862</v>
+        <v>2.8719833208696306</v>
       </c>
       <c r="I4">
         <f ca="1">Distances!I4/80</f>
-        <v>2.1906213844082076</v>
+        <v>1.7203529576415728</v>
       </c>
       <c r="J4">
         <f ca="1">Distances!J4/80</f>
-        <v>0.75841734587196785</v>
+        <v>2.2482149025311942</v>
       </c>
       <c r="K4">
         <f ca="1">Distances!K4/80</f>
-        <v>1.5032506371744756</v>
+        <v>0.93187321662399347</v>
       </c>
       <c r="L4">
         <f ca="1">Distances!L4/80</f>
-        <v>1.8567975088179782</v>
+        <v>1.5082921246451371</v>
       </c>
       <c r="M4">
         <f ca="1">Distances!M4/80</f>
-        <v>0.94723135924494084</v>
+        <v>2.6858624596038636</v>
       </c>
       <c r="N4">
         <f ca="1">Distances!N4/80</f>
-        <v>1.1710164752580656</v>
+        <v>1.8784646184240414</v>
       </c>
       <c r="O4">
         <f ca="1">Distances!O4/80</f>
-        <v>0.6805815816659142</v>
+        <v>1.2381940597423633</v>
       </c>
       <c r="P4">
         <f ca="1">Distances!P4/80</f>
-        <v>1.7672035095669567</v>
+        <v>2.8655291052679717</v>
       </c>
       <c r="Q4">
         <f ca="1">Distances!Q4/80</f>
-        <v>1.2170247895500625</v>
+        <v>1.7054609551583724</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>1.0898229317277621</v>
+        <v>0.37640040932896429</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>0.87618155947014231</v>
+        <v>0.48457987572499633</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>1.4919013400461352</v>
+        <v>0.28142709202952038</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>1.3338666940998789</v>
+        <v>1.3735640300801133</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -3970,73 +3970,73 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>0.8452077883021426</v>
+        <v>0.75542400537198473</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>1.7873319115670412</v>
+        <v>1.040516669977718</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>0.11582236989627548</v>
+        <v>1.5104145275477416</v>
       </c>
       <c r="I5">
         <f ca="1">Distances!I5/80</f>
-        <v>2.0273103101022882</v>
+        <v>0.42256314837382619</v>
       </c>
       <c r="J5">
         <f ca="1">Distances!J5/80</f>
-        <v>0.87393719514293378</v>
+        <v>1.6727293183854695</v>
       </c>
       <c r="K5">
         <f ca="1">Distances!K5/80</f>
-        <v>0.24651557986259703</v>
+        <v>1.0903001806623738</v>
       </c>
       <c r="L5">
         <f ca="1">Distances!L5/80</f>
-        <v>2.2415710463022682</v>
+        <v>0.82918014389754924</v>
       </c>
       <c r="M5">
         <f ca="1">Distances!M5/80</f>
-        <v>1.897148582963736</v>
+        <v>1.4211562143307686</v>
       </c>
       <c r="N5">
         <f ca="1">Distances!N5/80</f>
-        <v>2.1644960221480249</v>
+        <v>0.5793282337449559</v>
       </c>
       <c r="O5">
         <f ca="1">Distances!O5/80</f>
-        <v>1.411650446042789</v>
+        <v>0.34920523352012495</v>
       </c>
       <c r="P5">
         <f ca="1">Distances!P5/80</f>
-        <v>2.3630002943549941</v>
+        <v>1.4957251780179863</v>
       </c>
       <c r="Q5">
         <f ca="1">Distances!Q5/80</f>
-        <v>1.0898229317277621</v>
+        <v>0.37640040932896429</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>0.25323736515566508</v>
+        <v>0.38977665420561075</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>0.64106846847994059</v>
+        <v>0.82000094998349871</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>0.73424942691078998</v>
+        <v>0.87080130240739106</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>1.214994645417582</v>
+        <v>2.0033188019944266</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>0.8452077883021426</v>
+        <v>0.75542400537198473</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -4044,73 +4044,73 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>1.3111906019966271</v>
+        <v>1.1064025401319655</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>0.95864527452502168</v>
+        <v>1.201601003514192</v>
       </c>
       <c r="I6">
         <f ca="1">Distances!I6/80</f>
-        <v>1.2317037617842295</v>
+        <v>0.33334712899690933</v>
       </c>
       <c r="J6">
         <f ca="1">Distances!J6/80</f>
-        <v>1.2738209583389171</v>
+        <v>1.2447274058357634</v>
       </c>
       <c r="K6">
         <f ca="1">Distances!K6/80</f>
-        <v>0.78032362937410205</v>
+        <v>1.3901789171616827</v>
       </c>
       <c r="L6">
         <f ca="1">Distances!L6/80</f>
-        <v>1.4073793119444011</v>
+        <v>0.74821977442284837</v>
       </c>
       <c r="M6">
         <f ca="1">Distances!M6/80</f>
-        <v>1.304640233362022</v>
+        <v>0.68676528200677267</v>
       </c>
       <c r="N6">
         <f ca="1">Distances!N6/80</f>
-        <v>1.550673499557027</v>
+        <v>0.19184836650860027</v>
       </c>
       <c r="O6">
         <f ca="1">Distances!O6/80</f>
-        <v>0.86266471512628373</v>
+        <v>0.76516088669101912</v>
       </c>
       <c r="P6">
         <f ca="1">Distances!P6/80</f>
-        <v>1.5646044041272364</v>
+        <v>0.98459737731992336</v>
       </c>
       <c r="Q6">
         <f ca="1">Distances!Q6/80</f>
-        <v>0.25323736515566508</v>
+        <v>0.38977665420561075</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>1.1757004956548407</v>
+        <v>1.0684655978073252</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>0.91115483350719484</v>
+        <v>1.4904351804887741</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>0.7851046989605287</v>
+        <v>1.3219051154535739</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>0.69474348381775963</v>
+        <v>1.3171582720368373</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>1.7873319115670412</v>
+        <v>1.040516669977718</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>1.3111906019966271</v>
+        <v>1.1064025401319655</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -4118,73 +4118,73 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>1.8874184743403049</v>
+        <v>2.2833972152215685</v>
       </c>
       <c r="I7">
         <f ca="1">Distances!I7/80</f>
-        <v>1.8825839609839501</v>
+        <v>1.0238224028643836</v>
       </c>
       <c r="J7">
         <f ca="1">Distances!J7/80</f>
-        <v>1.4274349118979714</v>
+        <v>0.9339117823531462</v>
       </c>
       <c r="K7">
         <f ca="1">Distances!K7/80</f>
-        <v>1.8860809217610339</v>
+        <v>0.40731419403537839</v>
       </c>
       <c r="L7">
         <f ca="1">Distances!L7/80</f>
-        <v>1.3250403385343092</v>
+        <v>0.35979883913244892</v>
       </c>
       <c r="M7">
         <f ca="1">Distances!M7/80</f>
-        <v>0.28148450024720195</v>
+        <v>1.6634854389227733</v>
       </c>
       <c r="N7">
         <f ca="1">Distances!N7/80</f>
-        <v>0.47643659099094104</v>
+        <v>1.1066013631234555</v>
       </c>
       <c r="O7">
         <f ca="1">Distances!O7/80</f>
-        <v>0.44928822437869326</v>
+        <v>0.69267358618697061</v>
       </c>
       <c r="P7">
         <f ca="1">Distances!P7/80</f>
-        <v>1.1521272190706491</v>
+        <v>2.0904086637990442</v>
       </c>
       <c r="Q7">
         <f ca="1">Distances!Q7/80</f>
-        <v>1.1757004956548407</v>
+        <v>1.0684655978073252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">Distances!A8/80</f>
-        <v>1.204494005816507</v>
+        <v>1.2568134158731175</v>
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>0.97703189210313202</v>
+        <v>1.104205204898046</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>1.6072468683824273</v>
+        <v>1.359216289784317</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>1.4099825075117862</v>
+        <v>2.8719833208696306</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>0.11582236989627548</v>
+        <v>1.5104145275477416</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>0.95864527452502168</v>
+        <v>1.201601003514192</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>1.8874184743403049</v>
+        <v>2.2833972152215685</v>
       </c>
       <c r="H8">
         <f ca="1">Distances!H8/80</f>
@@ -4192,73 +4192,73 @@
       </c>
       <c r="I8">
         <f ca="1">Distances!I8/80</f>
-        <v>2.1306242108803737</v>
+        <v>1.2808682585995512</v>
       </c>
       <c r="J8">
         <f ca="1">Distances!J8/80</f>
-        <v>0.89507540305182742</v>
+        <v>2.365274829993004</v>
       </c>
       <c r="K8">
         <f ca="1">Distances!K8/80</f>
-        <v>0.29184803520898006</v>
+        <v>2.5022316861582685</v>
       </c>
       <c r="L8">
         <f ca="1">Distances!L8/80</f>
-        <v>2.3569583372628382</v>
+        <v>1.9348393282152863</v>
       </c>
       <c r="M8">
         <f ca="1">Distances!M8/80</f>
-        <v>2.0042251520199574</v>
+        <v>1.0671907956594748</v>
       </c>
       <c r="N8">
         <f ca="1">Distances!N8/80</f>
-        <v>2.2718237388654652</v>
+        <v>1.1772803320435239</v>
       </c>
       <c r="O8">
         <f ca="1">Distances!O8/80</f>
-        <v>1.5194892020826407</v>
+        <v>1.7561062668876573</v>
       </c>
       <c r="P8">
         <f ca="1">Distances!P8/80</f>
-        <v>2.4786680754214019</v>
+        <v>0.42743565481194945</v>
       </c>
       <c r="Q8">
         <f ca="1">Distances!Q8/80</f>
-        <v>1.204494005816507</v>
+        <v>1.2568134158731175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">Distances!A9/80</f>
-        <v>1.0593345058640706</v>
+        <v>7.2062105726815887E-2</v>
       </c>
       <c r="B9">
         <f ca="1">Distances!B9/80</f>
-        <v>1.74390277912707</v>
+        <v>0.5710915268697494</v>
       </c>
       <c r="C9">
         <f ca="1">Distances!C9/80</f>
-        <v>1.1237229424560198</v>
+        <v>0.55772425560250316</v>
       </c>
       <c r="D9">
         <f ca="1">Distances!D9/80</f>
-        <v>2.1906213844082076</v>
+        <v>1.7203529576415728</v>
       </c>
       <c r="E9">
         <f ca="1">Distances!E9/80</f>
-        <v>2.0273103101022882</v>
+        <v>0.42256314837382619</v>
       </c>
       <c r="F9">
         <f ca="1">Distances!F9/80</f>
-        <v>1.2317037617842295</v>
+        <v>0.33334712899690933</v>
       </c>
       <c r="G9">
         <f ca="1">Distances!G9/80</f>
-        <v>1.8825839609839501</v>
+        <v>1.0238224028643836</v>
       </c>
       <c r="H9">
         <f ca="1">Distances!H9/80</f>
-        <v>2.1306242108803737</v>
+        <v>1.2808682585995512</v>
       </c>
       <c r="I9">
         <f ca="1">Distances!I9/80</f>
@@ -4266,73 +4266,73 @@
       </c>
       <c r="J9">
         <f ca="1">Distances!J9/80</f>
-        <v>2.476325910908117</v>
+        <v>1.4109089494142595</v>
       </c>
       <c r="K9">
         <f ca="1">Distances!K9/80</f>
-        <v>1.8830274585087505</v>
+        <v>1.2220161635219788</v>
       </c>
       <c r="L9">
         <f ca="1">Distances!L9/80</f>
-        <v>0.85928430858768845</v>
+        <v>0.70297842244724007</v>
       </c>
       <c r="M9">
         <f ca="1">Distances!M9/80</f>
-        <v>1.6834527562103425</v>
+        <v>1.0037406001110321</v>
       </c>
       <c r="N9">
         <f ca="1">Distances!N9/80</f>
-        <v>1.7842854881500707</v>
+        <v>0.16208786146836521</v>
       </c>
       <c r="O9">
         <f ca="1">Distances!O9/80</f>
-        <v>1.5529663836350784</v>
+        <v>0.49980859515788112</v>
       </c>
       <c r="P9">
         <f ca="1">Distances!P9/80</f>
-        <v>1.2041880267670135</v>
+        <v>1.1681162558198204</v>
       </c>
       <c r="Q9">
         <f ca="1">Distances!Q9/80</f>
-        <v>1.0593345058640706</v>
+        <v>7.2062105726815887E-2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">Distances!A10/80</f>
-        <v>1.417038924893202</v>
+        <v>1.4815034741496378</v>
       </c>
       <c r="B10">
         <f ca="1">Distances!B10/80</f>
-        <v>0.76623669356598523</v>
+        <v>1.9817079880262205</v>
       </c>
       <c r="C10">
         <f ca="1">Distances!C10/80</f>
-        <v>1.561543057107402</v>
+        <v>1.9188389351966797</v>
       </c>
       <c r="D10">
         <f ca="1">Distances!D10/80</f>
-        <v>0.75841734587196785</v>
+        <v>2.2482149025311942</v>
       </c>
       <c r="E10">
         <f ca="1">Distances!E10/80</f>
-        <v>0.87393719514293378</v>
+        <v>1.6727293183854695</v>
       </c>
       <c r="F10">
         <f ca="1">Distances!F10/80</f>
-        <v>1.2738209583389171</v>
+        <v>1.2447274058357634</v>
       </c>
       <c r="G10">
         <f ca="1">Distances!G10/80</f>
-        <v>1.4274349118979714</v>
+        <v>0.9339117823531462</v>
       </c>
       <c r="H10">
         <f ca="1">Distances!H10/80</f>
-        <v>0.89507540305182742</v>
+        <v>2.365274829993004</v>
       </c>
       <c r="I10">
         <f ca="1">Distances!I10/80</f>
-        <v>2.476325910908117</v>
+        <v>1.4109089494142595</v>
       </c>
       <c r="J10">
         <f ca="1">Distances!J10/80</f>
@@ -4340,73 +4340,73 @@
       </c>
       <c r="K10">
         <f ca="1">Distances!K10/80</f>
-        <v>1.111107262298751</v>
+        <v>1.3210408881829143</v>
       </c>
       <c r="L10">
         <f ca="1">Distances!L10/80</f>
-        <v>2.3815153496286827</v>
+        <v>0.87969641856415903</v>
       </c>
       <c r="M10">
         <f ca="1">Distances!M10/80</f>
-        <v>1.6466754214016075</v>
+        <v>1.4056211621625248</v>
       </c>
       <c r="N10">
         <f ca="1">Distances!N10/80</f>
-        <v>1.8943579009483025</v>
+        <v>1.3792027505618776</v>
       </c>
       <c r="O10">
         <f ca="1">Distances!O10/80</f>
-        <v>1.2484892691727609</v>
+        <v>1.3982889907018454</v>
       </c>
       <c r="P10">
         <f ca="1">Distances!P10/80</f>
-        <v>2.3753024844786004</v>
+        <v>2.030852895388918</v>
       </c>
       <c r="Q10">
         <f ca="1">Distances!Q10/80</f>
-        <v>1.417038924893202</v>
+        <v>1.4815034741496378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">Distances!A11/80</f>
-        <v>1.0335593843037592</v>
+        <v>1.2466495095532213</v>
       </c>
       <c r="B11">
         <f ca="1">Distances!B11/80</f>
-        <v>0.98864773376479165</v>
+        <v>1.5738736392630837</v>
       </c>
       <c r="C11">
         <f ca="1">Distances!C11/80</f>
-        <v>1.487787285318444</v>
+        <v>1.3570579245485814</v>
       </c>
       <c r="D11">
         <f ca="1">Distances!D11/80</f>
-        <v>1.5032506371744756</v>
+        <v>0.93187321662399347</v>
       </c>
       <c r="E11">
         <f ca="1">Distances!E11/80</f>
-        <v>0.24651557986259703</v>
+        <v>1.0903001806623738</v>
       </c>
       <c r="F11">
         <f ca="1">Distances!F11/80</f>
-        <v>0.78032362937410205</v>
+        <v>1.3901789171616827</v>
       </c>
       <c r="G11">
         <f ca="1">Distances!G11/80</f>
-        <v>1.8860809217610339</v>
+        <v>0.40731419403537839</v>
       </c>
       <c r="H11">
         <f ca="1">Distances!H11/80</f>
-        <v>0.29184803520898006</v>
+        <v>2.5022316861582685</v>
       </c>
       <c r="I11">
         <f ca="1">Distances!I11/80</f>
-        <v>1.8830274585087505</v>
+        <v>1.2220161635219788</v>
       </c>
       <c r="J11">
         <f ca="1">Distances!J11/80</f>
-        <v>1.111107262298751</v>
+        <v>1.3210408881829143</v>
       </c>
       <c r="K11">
         <f ca="1">Distances!K11/80</f>
@@ -4414,73 +4414,73 @@
       </c>
       <c r="L11">
         <f ca="1">Distances!L11/80</f>
-        <v>2.1856912277016978</v>
+        <v>0.69963131766512654</v>
       </c>
       <c r="M11">
         <f ca="1">Distances!M11/80</f>
-        <v>1.9631416362082288</v>
+        <v>2.0074636941574311</v>
       </c>
       <c r="N11">
         <f ca="1">Distances!N11/80</f>
-        <v>2.2270017848532779</v>
+        <v>1.3418797312649688</v>
       </c>
       <c r="O11">
         <f ca="1">Distances!O11/80</f>
-        <v>1.4791993997944402</v>
+        <v>0.76516390049429028</v>
       </c>
       <c r="P11">
         <f ca="1">Distances!P11/80</f>
-        <v>2.341175370875451</v>
+        <v>2.3645440106157283</v>
       </c>
       <c r="Q11">
         <f ca="1">Distances!Q11/80</f>
-        <v>1.0335593843037592</v>
+        <v>1.2466495095532213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">Distances!A12/80</f>
-        <v>1.1554940079900402</v>
+        <v>0.75785348448062939</v>
       </c>
       <c r="B12">
         <f ca="1">Distances!B12/80</f>
-        <v>1.6214625984086291</v>
+        <v>1.2235060487540643</v>
       </c>
       <c r="C12">
         <f ca="1">Distances!C12/80</f>
-        <v>0.82088708140316591</v>
+        <v>1.0989714810343754</v>
       </c>
       <c r="D12">
         <f ca="1">Distances!D12/80</f>
-        <v>1.8567975088179782</v>
+        <v>1.5082921246451371</v>
       </c>
       <c r="E12">
         <f ca="1">Distances!E12/80</f>
-        <v>2.2415710463022682</v>
+        <v>0.82918014389754924</v>
       </c>
       <c r="F12">
         <f ca="1">Distances!F12/80</f>
-        <v>1.4073793119444011</v>
+        <v>0.74821977442284837</v>
       </c>
       <c r="G12">
         <f ca="1">Distances!G12/80</f>
-        <v>1.3250403385343092</v>
+        <v>0.35979883913244892</v>
       </c>
       <c r="H12">
         <f ca="1">Distances!H12/80</f>
-        <v>2.3569583372628382</v>
+        <v>1.9348393282152863</v>
       </c>
       <c r="I12">
         <f ca="1">Distances!I12/80</f>
-        <v>0.85928430858768845</v>
+        <v>0.70297842244724007</v>
       </c>
       <c r="J12">
         <f ca="1">Distances!J12/80</f>
-        <v>2.3815153496286827</v>
+        <v>0.87969641856415903</v>
       </c>
       <c r="K12">
         <f ca="1">Distances!K12/80</f>
-        <v>2.1856912277016978</v>
+        <v>0.69963131766512654</v>
       </c>
       <c r="L12">
         <f ca="1">Distances!L12/80</f>
@@ -4488,73 +4488,73 @@
       </c>
       <c r="M12">
         <f ca="1">Distances!M12/80</f>
-        <v>1.0608433698491977</v>
+        <v>1.3146278286276263</v>
       </c>
       <c r="N12">
         <f ca="1">Distances!N12/80</f>
-        <v>1.0590147368595868</v>
+        <v>0.7633935748806443</v>
       </c>
       <c r="O12">
         <f ca="1">Distances!O12/80</f>
-        <v>1.1812646646341078</v>
+        <v>0.52265478953638644</v>
       </c>
       <c r="P12">
         <f ca="1">Distances!P12/80</f>
-        <v>0.34803029119992146</v>
+        <v>1.7312785322408388</v>
       </c>
       <c r="Q12">
         <f ca="1">Distances!Q12/80</f>
-        <v>1.1554940079900402</v>
+        <v>0.75785348448062939</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">Distances!A13/80</f>
-        <v>1.1241546889571443</v>
+        <v>1.0447712092615213</v>
       </c>
       <c r="B13">
         <f ca="1">Distances!B13/80</f>
-        <v>1.0374863491633821</v>
+        <v>1.3370570203327106</v>
       </c>
       <c r="C13">
         <f ca="1">Distances!C13/80</f>
-        <v>0.656669642625751</v>
+        <v>1.4746796517387806</v>
       </c>
       <c r="D13">
         <f ca="1">Distances!D13/80</f>
-        <v>0.94723135924494084</v>
+        <v>2.6858624596038636</v>
       </c>
       <c r="E13">
         <f ca="1">Distances!E13/80</f>
-        <v>1.897148582963736</v>
+        <v>1.4211562143307686</v>
       </c>
       <c r="F13">
         <f ca="1">Distances!F13/80</f>
-        <v>1.304640233362022</v>
+        <v>0.68676528200677267</v>
       </c>
       <c r="G13">
         <f ca="1">Distances!G13/80</f>
-        <v>0.28148450024720195</v>
+        <v>1.6634854389227733</v>
       </c>
       <c r="H13">
         <f ca="1">Distances!H13/80</f>
-        <v>2.0042251520199574</v>
+        <v>1.0671907956594748</v>
       </c>
       <c r="I13">
         <f ca="1">Distances!I13/80</f>
-        <v>1.6834527562103425</v>
+        <v>1.0037406001110321</v>
       </c>
       <c r="J13">
         <f ca="1">Distances!J13/80</f>
-        <v>1.6466754214016075</v>
+        <v>1.4056211621625248</v>
       </c>
       <c r="K13">
         <f ca="1">Distances!K13/80</f>
-        <v>1.9631416362082288</v>
+        <v>2.0074636941574311</v>
       </c>
       <c r="L13">
         <f ca="1">Distances!L13/80</f>
-        <v>1.0608433698491977</v>
+        <v>1.3146278286276263</v>
       </c>
       <c r="M13">
         <f ca="1">Distances!M13/80</f>
@@ -4562,73 +4562,73 @@
       </c>
       <c r="N13">
         <f ca="1">Distances!N13/80</f>
-        <v>0.26775294201557975</v>
+        <v>0.8429450261495397</v>
       </c>
       <c r="O13">
         <f ca="1">Distances!O13/80</f>
-        <v>0.48607175647054496</v>
+        <v>1.4492826265128256</v>
       </c>
       <c r="P13">
         <f ca="1">Distances!P13/80</f>
-        <v>0.87151661156037397</v>
+        <v>0.66560200670195635</v>
       </c>
       <c r="Q13">
         <f ca="1">Distances!Q13/80</f>
-        <v>1.1241546889571443</v>
+        <v>1.0447712092615213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f ca="1">Distances!A14/80</f>
-        <v>1.3547176011045936</v>
+        <v>0.20457994198541382</v>
       </c>
       <c r="B14">
         <f ca="1">Distances!B14/80</f>
-        <v>1.3048306081386121</v>
+        <v>0.63688533581280538</v>
       </c>
       <c r="C14">
         <f ca="1">Distances!C14/80</f>
-        <v>0.86192357753523319</v>
+        <v>0.67911668776256029</v>
       </c>
       <c r="D14">
         <f ca="1">Distances!D14/80</f>
-        <v>1.1710164752580656</v>
+        <v>1.8784646184240414</v>
       </c>
       <c r="E14">
         <f ca="1">Distances!E14/80</f>
-        <v>2.1644960221480249</v>
+        <v>0.5793282337449559</v>
       </c>
       <c r="F14">
         <f ca="1">Distances!F14/80</f>
-        <v>1.550673499557027</v>
+        <v>0.19184836650860027</v>
       </c>
       <c r="G14">
         <f ca="1">Distances!G14/80</f>
-        <v>0.47643659099094104</v>
+        <v>1.1066013631234555</v>
       </c>
       <c r="H14">
         <f ca="1">Distances!H14/80</f>
-        <v>2.2718237388654652</v>
+        <v>1.1772803320435239</v>
       </c>
       <c r="I14">
         <f ca="1">Distances!I14/80</f>
-        <v>1.7842854881500707</v>
+        <v>0.16208786146836521</v>
       </c>
       <c r="J14">
         <f ca="1">Distances!J14/80</f>
-        <v>1.8943579009483025</v>
+        <v>1.3792027505618776</v>
       </c>
       <c r="K14">
         <f ca="1">Distances!K14/80</f>
-        <v>2.2270017848532779</v>
+        <v>1.3418797312649688</v>
       </c>
       <c r="L14">
         <f ca="1">Distances!L14/80</f>
-        <v>1.0590147368595868</v>
+        <v>0.7633935748806443</v>
       </c>
       <c r="M14">
         <f ca="1">Distances!M14/80</f>
-        <v>0.26775294201557975</v>
+        <v>0.8429450261495397</v>
       </c>
       <c r="N14">
         <f ca="1">Distances!N14/80</f>
@@ -4636,73 +4636,73 @@
       </c>
       <c r="O14">
         <f ca="1">Distances!O14/80</f>
-        <v>0.75294950214639056</v>
+        <v>0.64920230405398027</v>
       </c>
       <c r="P14">
         <f ca="1">Distances!P14/80</f>
-        <v>0.79571382855301342</v>
+        <v>1.0278567231777438</v>
       </c>
       <c r="Q14">
         <f ca="1">Distances!Q14/80</f>
-        <v>1.3547176011045936</v>
+        <v>0.20457994198541382</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f ca="1">Distances!A15/80</f>
-        <v>0.73208925552962212</v>
+        <v>0.50472256135791449</v>
       </c>
       <c r="B15">
         <f ca="1">Distances!B15/80</f>
-        <v>0.56336015971726661</v>
+        <v>0.81861637548147159</v>
       </c>
       <c r="C15">
         <f ca="1">Distances!C15/80</f>
-        <v>0.43252994157448466</v>
+        <v>0.63041043502259275</v>
       </c>
       <c r="D15">
         <f ca="1">Distances!D15/80</f>
-        <v>0.6805815816659142</v>
+        <v>1.2381940597423633</v>
       </c>
       <c r="E15">
         <f ca="1">Distances!E15/80</f>
-        <v>1.411650446042789</v>
+        <v>0.34920523352012495</v>
       </c>
       <c r="F15">
         <f ca="1">Distances!F15/80</f>
-        <v>0.86266471512628373</v>
+        <v>0.76516088669101912</v>
       </c>
       <c r="G15">
         <f ca="1">Distances!G15/80</f>
-        <v>0.44928822437869326</v>
+        <v>0.69267358618697061</v>
       </c>
       <c r="H15">
         <f ca="1">Distances!H15/80</f>
-        <v>1.5194892020826407</v>
+        <v>1.7561062668876573</v>
       </c>
       <c r="I15">
         <f ca="1">Distances!I15/80</f>
-        <v>1.5529663836350784</v>
+        <v>0.49980859515788112</v>
       </c>
       <c r="J15">
         <f ca="1">Distances!J15/80</f>
-        <v>1.2484892691727609</v>
+        <v>1.3982889907018454</v>
       </c>
       <c r="K15">
         <f ca="1">Distances!K15/80</f>
-        <v>1.4791993997944402</v>
+        <v>0.76516390049429028</v>
       </c>
       <c r="L15">
         <f ca="1">Distances!L15/80</f>
-        <v>1.1812646646341078</v>
+        <v>0.52265478953638644</v>
       </c>
       <c r="M15">
         <f ca="1">Distances!M15/80</f>
-        <v>0.48607175647054496</v>
+        <v>1.4492826265128256</v>
       </c>
       <c r="N15">
         <f ca="1">Distances!N15/80</f>
-        <v>0.75294950214639056</v>
+        <v>0.64920230405398027</v>
       </c>
       <c r="O15">
         <f ca="1">Distances!O15/80</f>
@@ -4710,73 +4710,73 @@
       </c>
       <c r="P15">
         <f ca="1">Distances!P15/80</f>
-        <v>1.129794979990304</v>
+        <v>1.667747124354896</v>
       </c>
       <c r="Q15">
         <f ca="1">Distances!Q15/80</f>
-        <v>0.73208925552962212</v>
+        <v>0.50472256135791449</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f ca="1">Distances!A16/80</f>
-        <v>1.313395398672428</v>
+        <v>1.1682997101684089</v>
       </c>
       <c r="B16">
         <f ca="1">Distances!B16/80</f>
-        <v>1.6441874200572826</v>
+        <v>1.1952899630705034</v>
       </c>
       <c r="C16">
         <f ca="1">Distances!C16/80</f>
-        <v>0.87454365205883045</v>
+        <v>1.4204454610907811</v>
       </c>
       <c r="D16">
         <f ca="1">Distances!D16/80</f>
-        <v>1.7672035095669567</v>
+        <v>2.8655291052679717</v>
       </c>
       <c r="E16">
         <f ca="1">Distances!E16/80</f>
-        <v>2.3630002943549941</v>
+        <v>1.4957251780179863</v>
       </c>
       <c r="F16">
         <f ca="1">Distances!F16/80</f>
-        <v>1.5646044041272364</v>
+        <v>0.98459737731992336</v>
       </c>
       <c r="G16">
         <f ca="1">Distances!G16/80</f>
-        <v>1.1521272190706491</v>
+        <v>2.0904086637990442</v>
       </c>
       <c r="H16">
         <f ca="1">Distances!H16/80</f>
-        <v>2.4786680754214019</v>
+        <v>0.42743565481194945</v>
       </c>
       <c r="I16">
         <f ca="1">Distances!I16/80</f>
-        <v>1.2041880267670135</v>
+        <v>1.1681162558198204</v>
       </c>
       <c r="J16">
         <f ca="1">Distances!J16/80</f>
-        <v>2.3753024844786004</v>
+        <v>2.030852895388918</v>
       </c>
       <c r="K16">
         <f ca="1">Distances!K16/80</f>
-        <v>2.341175370875451</v>
+        <v>2.3645440106157283</v>
       </c>
       <c r="L16">
         <f ca="1">Distances!L16/80</f>
-        <v>0.34803029119992146</v>
+        <v>1.7312785322408388</v>
       </c>
       <c r="M16">
         <f ca="1">Distances!M16/80</f>
-        <v>0.87151661156037397</v>
+        <v>0.66560200670195635</v>
       </c>
       <c r="N16">
         <f ca="1">Distances!N16/80</f>
-        <v>0.79571382855301342</v>
+        <v>1.0278567231777438</v>
       </c>
       <c r="O16">
         <f ca="1">Distances!O16/80</f>
-        <v>1.129794979990304</v>
+        <v>1.667747124354896</v>
       </c>
       <c r="P16">
         <f ca="1">Distances!P16/80</f>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="Q16">
         <f ca="1">Distances!Q16/80</f>
-        <v>1.313395398672428</v>
+        <v>1.1682997101684089</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4794,63 +4794,63 @@
       </c>
       <c r="B17">
         <f ca="1">Distances!B17/80</f>
-        <v>0.69824244916765887</v>
+        <v>0.50020700568903931</v>
       </c>
       <c r="C17">
         <f ca="1">Distances!C17/80</f>
-        <v>0.50686546300570523</v>
+        <v>0.48919961887370222</v>
       </c>
       <c r="D17">
         <f ca="1">Distances!D17/80</f>
-        <v>1.2170247895500625</v>
+        <v>1.7054609551583724</v>
       </c>
       <c r="E17">
         <f ca="1">Distances!E17/80</f>
-        <v>1.0898229317277621</v>
+        <v>0.37640040932896429</v>
       </c>
       <c r="F17">
         <f ca="1">Distances!F17/80</f>
-        <v>0.25323736515566508</v>
+        <v>0.38977665420561075</v>
       </c>
       <c r="G17">
         <f ca="1">Distances!G17/80</f>
-        <v>1.1757004956548407</v>
+        <v>1.0684655978073252</v>
       </c>
       <c r="H17">
         <f ca="1">Distances!H17/80</f>
-        <v>1.204494005816507</v>
+        <v>1.2568134158731175</v>
       </c>
       <c r="I17">
         <f ca="1">Distances!I17/80</f>
-        <v>1.0593345058640706</v>
+        <v>7.2062105726815887E-2</v>
       </c>
       <c r="J17">
         <f ca="1">Distances!J17/80</f>
-        <v>1.417038924893202</v>
+        <v>1.4815034741496378</v>
       </c>
       <c r="K17">
         <f ca="1">Distances!K17/80</f>
-        <v>1.0335593843037592</v>
+        <v>1.2466495095532213</v>
       </c>
       <c r="L17">
         <f ca="1">Distances!L17/80</f>
-        <v>1.1554940079900402</v>
+        <v>0.75785348448062939</v>
       </c>
       <c r="M17">
         <f ca="1">Distances!M17/80</f>
-        <v>1.1241546889571443</v>
+        <v>1.0447712092615213</v>
       </c>
       <c r="N17">
         <f ca="1">Distances!N17/80</f>
-        <v>1.3547176011045936</v>
+        <v>0.20457994198541382</v>
       </c>
       <c r="O17">
         <f ca="1">Distances!O17/80</f>
-        <v>0.73208925552962212</v>
+        <v>0.50472256135791449</v>
       </c>
       <c r="P17">
         <f ca="1">Distances!P17/80</f>
-        <v>1.313395398672428</v>
+        <v>1.1682997101684089</v>
       </c>
       <c r="Q17">
         <f>Distances!Q17/80</f>
